--- a/biology/Médecine/Hôpital_San_Gallicano/Hôpital_San_Gallicano.xlsx
+++ b/biology/Médecine/Hôpital_San_Gallicano/Hôpital_San_Gallicano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_San_Gallicano</t>
+          <t>Hôpital_San_Gallicano</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital de S. Maria et San Gallicano, plus communément appelé San Gallicano, est un bâtiment construit à Rome entre 1724 et 1726 à l'occasion du jubilé de 1725. C'est le dernier des cinq hôpitaux historiques de Rome.  
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_San_Gallicano</t>
+          <t>Hôpital_San_Gallicano</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La structure a été commandée en 1724 par le pape Benoît XIII (1724-1730), qui est monté sur le trône papal la même année. Le projet hospitalier a été confié d'abord à Lorenzo Possenti, puis à l'architecte Filippo Raguzzini (1680-1771), qui a achevé la tâche de construire une structure hospitalière dans la zone déjà partiellement construite dans le rione XIII de Trastevere. 
 Les travaux se sont déroulés rapidement; la première pierre a été posée le 14 mars 1725, et l'église a été consacrée par Benoît XIII le 6 octobre 1726, comme le montre la plaque commémorative à l'intérieur de l'église elle-même et comme en témoigne le journal de Don Emilio Lami, bien qu'en réalité l'ouverture effective aux malades a eu lieu deux jours plus tard, le 8 octobre. 
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_San_Gallicano</t>
+          <t>Hôpital_San_Gallicano</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Usage actuel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Il abrite actuellement la Communauté de Sant'Egidio et l'Institut national pour la promotion de la santé des populations migrantes et pour la lutte contre les maladies de la pauvreté - INMP, organisme public du Service Sanitaire National, créé en 2007 pour faire face aux défis socio-sanitaires rencontrés par les populations les plus vulnérables et encadrés par le Ministère de la Santé. 
